--- a/data/trans_orig/P1426-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1426-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CCEE914-D0E4-4108-A031-B58D10014C85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7305F6DC-B4FF-4213-9EA5-1BB5476157B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F56DEA95-3294-43BF-AB1E-63D8CB87E570}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{180AB715-6A6C-43C5-9D21-CACC968415D7}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="412">
   <si>
     <t>Población con diagnóstico de hipoacusia en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -88,1240 +88,1192 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>99,06%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,24%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,76%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>90,45%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>99,26%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipoacusia en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>99,64%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>95,72%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>98,66%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipoacusia en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>98,67%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
   </si>
   <si>
     <t>98,0%</t>
   </si>
   <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipoacusia en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,16%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>94,6%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>98,12%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
   </si>
   <si>
     <t>94,13%</t>
   </si>
   <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipoacusia en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
   </si>
   <si>
     <t>3,24%</t>
   </si>
   <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,94%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
   </si>
   <si>
     <t>96,76%</t>
   </si>
   <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
+    <t>98,4%</t>
   </si>
   <si>
     <t>97,85%</t>
   </si>
   <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
+    <t>5,23%</t>
+  </si>
+  <si>
     <t>95,15%</t>
   </si>
   <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
   </si>
   <si>
     <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
   </si>
 </sst>
 </file>
@@ -1733,7 +1685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E8EC84-D72E-4D9F-87C0-71AB0956A994}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E1505C-7848-4668-AE59-10BCC60822B5}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2462,10 +2414,10 @@
         <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -2474,13 +2426,13 @@
         <v>12045</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -2489,13 +2441,13 @@
         <v>19531</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2510,13 +2462,13 @@
         <v>205133</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="H17" s="7">
         <v>201</v>
@@ -2525,13 +2477,13 @@
         <v>207546</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>390</v>
@@ -2540,13 +2492,13 @@
         <v>412678</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2602,7 +2554,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2614,13 +2566,13 @@
         <v>8285</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -2629,13 +2581,13 @@
         <v>4269</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -2644,13 +2596,13 @@
         <v>12554</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2665,13 +2617,13 @@
         <v>265696</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>264</v>
@@ -2680,13 +2632,13 @@
         <v>273827</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="M20" s="7">
         <v>517</v>
@@ -2695,13 +2647,13 @@
         <v>539523</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2757,7 +2709,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2769,13 +2721,13 @@
         <v>16052</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -2784,13 +2736,13 @@
         <v>10602</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>73</v>
+        <v>109</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -2799,13 +2751,13 @@
         <v>26655</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2820,13 +2772,13 @@
         <v>646736</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="H23" s="7">
         <v>626</v>
@@ -2835,13 +2787,13 @@
         <v>683251</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="M23" s="7">
         <v>1230</v>
@@ -2850,13 +2802,13 @@
         <v>1329986</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2912,7 +2864,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2924,13 +2876,13 @@
         <v>4324</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -2939,13 +2891,13 @@
         <v>7814</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -2954,13 +2906,13 @@
         <v>12138</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="P25" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3005,13 +2957,13 @@
         <v>1589538</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>108</v>
+        <v>141</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3031,13 @@
         <v>52777</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H28" s="7">
         <v>60</v>
@@ -3094,13 +3046,13 @@
         <v>65865</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M28" s="7">
         <v>107</v>
@@ -3109,13 +3061,13 @@
         <v>118642</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,13 +3082,13 @@
         <v>3374002</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>149</v>
+        <v>104</v>
       </c>
       <c r="H29" s="7">
         <v>3236</v>
@@ -3145,28 +3097,28 @@
         <v>3489233</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M29" s="7">
         <v>6398</v>
       </c>
       <c r="N29" s="7">
-        <v>6863235</v>
+        <v>6863236</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3208,7 +3160,7 @@
         <v>6505</v>
       </c>
       <c r="N30" s="7">
-        <v>6981877</v>
+        <v>6981878</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>32</v>
@@ -3222,7 +3174,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3246,7 +3198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C006461-22EA-4B4C-8A70-67C15A430CC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3428DD-1B2C-44A9-9C9C-712E1B9EC0AB}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3263,7 +3215,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3370,13 +3322,13 @@
         <v>7200</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3385,13 +3337,13 @@
         <v>8147</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -3400,13 +3352,13 @@
         <v>15347</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3421,13 +3373,13 @@
         <v>286561</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="H5" s="7">
         <v>269</v>
@@ -3436,13 +3388,13 @@
         <v>280556</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>87</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="M5" s="7">
         <v>528</v>
@@ -3451,13 +3403,13 @@
         <v>567117</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3525,13 +3477,13 @@
         <v>2644</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3540,13 +3492,13 @@
         <v>5672</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>35</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>178</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3561,7 +3513,7 @@
         <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3528,13 @@
         <v>499931</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H8" s="7">
         <v>479</v>
@@ -3591,13 +3543,13 @@
         <v>517412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="M8" s="7">
         <v>951</v>
@@ -3606,13 +3558,13 @@
         <v>1017343</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>189</v>
+        <v>99</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3632,13 @@
         <v>1721</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3695,13 +3647,13 @@
         <v>3185</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>78</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3710,13 +3662,13 @@
         <v>4905</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,10 +3683,10 @@
         <v>316844</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>25</v>
@@ -3749,10 +3701,10 @@
         <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>87</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="M11" s="7">
         <v>662</v>
@@ -3761,13 +3713,13 @@
         <v>649969</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>51</v>
+        <v>196</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,13 +3787,13 @@
         <v>7133</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3850,13 +3802,13 @@
         <v>3059</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>41</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3865,13 +3817,13 @@
         <v>10192</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>207</v>
+        <v>133</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3886,13 +3838,13 @@
         <v>362831</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H14" s="7">
         <v>356</v>
@@ -3901,10 +3853,10 @@
         <v>384224</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>51</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>25</v>
@@ -3916,10 +3868,10 @@
         <v>747055</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>23</v>
@@ -3990,13 +3942,13 @@
         <v>2612</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>19</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4005,13 +3957,13 @@
         <v>8775</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -4020,13 +3972,13 @@
         <v>11387</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4041,10 +3993,10 @@
         <v>208609</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>223</v>
+        <v>27</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>25</v>
@@ -4056,13 +4008,13 @@
         <v>209812</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="M17" s="7">
         <v>425</v>
@@ -4071,13 +4023,13 @@
         <v>418421</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,7 +4085,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4145,13 +4097,13 @@
         <v>5042</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>229</v>
+        <v>130</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -4160,13 +4112,13 @@
         <v>8114</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>232</v>
+        <v>114</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -4175,13 +4127,13 @@
         <v>13156</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4196,13 +4148,13 @@
         <v>258081</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>235</v>
+        <v>138</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="H20" s="7">
         <v>255</v>
@@ -4211,13 +4163,13 @@
         <v>265001</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>238</v>
+        <v>122</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M20" s="7">
         <v>509</v>
@@ -4226,13 +4178,13 @@
         <v>523082</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4288,7 +4240,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4300,13 +4252,13 @@
         <v>13461</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -4315,13 +4267,13 @@
         <v>29795</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>79</v>
+        <v>239</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -4330,13 +4282,13 @@
         <v>43256</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>247</v>
+        <v>16</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4351,13 +4303,13 @@
         <v>643097</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H23" s="7">
         <v>620</v>
@@ -4366,13 +4318,13 @@
         <v>661499</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>89</v>
+        <v>248</v>
       </c>
       <c r="M23" s="7">
         <v>1186</v>
@@ -4381,13 +4333,13 @@
         <v>1304596</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>256</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,7 +4395,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4455,13 +4407,13 @@
         <v>9224</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>92</v>
+        <v>251</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>230</v>
+        <v>125</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -4470,13 +4422,13 @@
         <v>5419</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>259</v>
+        <v>191</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>94</v>
+        <v>254</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -4485,13 +4437,13 @@
         <v>14644</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>262</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,13 +4458,13 @@
         <v>769359</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>102</v>
+        <v>257</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>237</v>
+        <v>134</v>
       </c>
       <c r="H26" s="7">
         <v>750</v>
@@ -4521,13 +4473,13 @@
         <v>820748</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>103</v>
+        <v>260</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>265</v>
+        <v>198</v>
       </c>
       <c r="M26" s="7">
         <v>1490</v>
@@ -4536,13 +4488,13 @@
         <v>1590106</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>267</v>
+        <v>99</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,13 +4562,13 @@
         <v>49037</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>158</v>
+        <v>263</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>270</v>
+        <v>130</v>
       </c>
       <c r="H28" s="7">
         <v>65</v>
@@ -4625,13 +4577,13 @@
         <v>72166</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>271</v>
+        <v>149</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>181</v>
+        <v>264</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="M28" s="7">
         <v>115</v>
@@ -4640,13 +4592,13 @@
         <v>121203</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>273</v>
+        <v>192</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>274</v>
+        <v>145</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4613,13 @@
         <v>3345313</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>277</v>
+        <v>138</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>167</v>
+        <v>267</v>
       </c>
       <c r="H29" s="7">
         <v>3273</v>
@@ -4676,13 +4628,13 @@
         <v>3472376</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>278</v>
+        <v>155</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>279</v>
+        <v>268</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>189</v>
+        <v>269</v>
       </c>
       <c r="M29" s="7">
         <v>6454</v>
@@ -4691,13 +4643,13 @@
         <v>6817689</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>280</v>
+        <v>197</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>282</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,7 +4705,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -4777,7 +4729,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D199D1F-1974-4D64-AD16-798D580CD14B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8B5BD9-B5A9-450B-A9E6-74550C633534}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4794,7 +4746,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4901,13 +4853,13 @@
         <v>5234</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4916,13 +4868,13 @@
         <v>5700</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -4931,13 +4883,13 @@
         <v>10934</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>290</v>
+        <v>143</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4952,13 +4904,13 @@
         <v>255064</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="H5" s="7">
         <v>526</v>
@@ -4967,13 +4919,13 @@
         <v>265703</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>296</v>
+        <v>281</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>297</v>
+        <v>282</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>298</v>
+        <v>283</v>
       </c>
       <c r="M5" s="7">
         <v>849</v>
@@ -4982,13 +4934,13 @@
         <v>520766</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>299</v>
+        <v>150</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,13 +5008,13 @@
         <v>12192</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>286</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>53</v>
+        <v>287</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -5071,13 +5023,13 @@
         <v>11068</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>289</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -5086,13 +5038,13 @@
         <v>23259</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>292</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>305</v>
+        <v>145</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5059,13 @@
         <v>506035</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>24</v>
+        <v>294</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>62</v>
+        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>699</v>
@@ -5122,13 +5074,13 @@
         <v>542156</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>148</v>
+        <v>297</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="M8" s="7">
         <v>1069</v>
@@ -5137,13 +5089,13 @@
         <v>1048192</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>300</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>311</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5163,13 @@
         <v>31168</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -5226,13 +5178,13 @@
         <v>22228</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>316</v>
+        <v>36</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -5241,13 +5193,13 @@
         <v>53395</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5214,13 @@
         <v>291072</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="H11" s="7">
         <v>496</v>
@@ -5277,13 +5229,13 @@
         <v>351056</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>326</v>
+        <v>44</v>
       </c>
       <c r="M11" s="7">
         <v>813</v>
@@ -5292,13 +5244,13 @@
         <v>642129</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,13 +5318,13 @@
         <v>10759</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -5381,13 +5333,13 @@
         <v>16676</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>334</v>
+        <v>17</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -5396,13 +5348,13 @@
         <v>27435</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>337</v>
+        <v>324</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5369,13 @@
         <v>311481</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>340</v>
+        <v>327</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>341</v>
+        <v>328</v>
       </c>
       <c r="H14" s="7">
         <v>564</v>
@@ -5432,13 +5384,13 @@
         <v>411880</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>343</v>
+        <v>330</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>344</v>
+        <v>26</v>
       </c>
       <c r="M14" s="7">
         <v>842</v>
@@ -5447,13 +5399,13 @@
         <v>723361</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,13 +5473,13 @@
         <v>14755</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -5536,13 +5488,13 @@
         <v>18307</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
@@ -5551,13 +5503,13 @@
         <v>33062</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,13 +5524,13 @@
         <v>181993</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="H17" s="7">
         <v>445</v>
@@ -5587,13 +5539,13 @@
         <v>212315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="M17" s="7">
         <v>698</v>
@@ -5602,13 +5554,13 @@
         <v>394308</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,7 +5616,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5676,13 +5628,13 @@
         <v>37950</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="H19" s="7">
         <v>77</v>
@@ -5691,13 +5643,13 @@
         <v>33723</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="M19" s="7">
         <v>150</v>
@@ -5706,13 +5658,13 @@
         <v>71672</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5679,13 @@
         <v>239273</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="H20" s="7">
         <v>382</v>
@@ -5742,13 +5694,13 @@
         <v>241182</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="M20" s="7">
         <v>680</v>
@@ -5757,13 +5709,13 @@
         <v>480455</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,7 +5771,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5831,13 +5783,13 @@
         <v>35453</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>384</v>
+        <v>226</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="H22" s="7">
         <v>70</v>
@@ -5846,13 +5798,13 @@
         <v>48442</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="M22" s="7">
         <v>110</v>
@@ -5861,13 +5813,13 @@
         <v>83895</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>234</v>
+        <v>375</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5834,13 @@
         <v>590380</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>392</v>
+        <v>231</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="H23" s="7">
         <v>888</v>
@@ -5897,13 +5849,13 @@
         <v>754903</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="M23" s="7">
         <v>1445</v>
@@ -5912,13 +5864,13 @@
         <v>1345283</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>239</v>
+        <v>383</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5974,7 +5926,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5986,13 +5938,13 @@
         <v>16551</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>400</v>
+        <v>290</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -6001,13 +5953,13 @@
         <v>20585</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>243</v>
+        <v>389</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -6016,13 +5968,13 @@
         <v>37136</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>406</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6037,13 +5989,13 @@
         <v>842877</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>408</v>
+        <v>299</v>
       </c>
       <c r="H26" s="7">
         <v>1031</v>
@@ -6052,13 +6004,13 @@
         <v>845087</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>409</v>
+        <v>392</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>250</v>
+        <v>393</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="M26" s="7">
         <v>1773</v>
@@ -6067,13 +6019,13 @@
         <v>1687964</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>412</v>
+        <v>84</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>413</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6141,13 +6093,13 @@
         <v>164062</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="H28" s="7">
         <v>324</v>
@@ -6156,13 +6108,13 @@
         <v>176728</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>418</v>
+        <v>400</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="M28" s="7">
         <v>559</v>
@@ -6171,13 +6123,13 @@
         <v>340790</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>420</v>
+        <v>402</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6192,13 +6144,13 @@
         <v>3218174</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>421</v>
+        <v>404</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="H29" s="7">
         <v>5031</v>
@@ -6207,28 +6159,28 @@
         <v>3624282</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="M29" s="7">
         <v>8169</v>
       </c>
       <c r="N29" s="7">
-        <v>6842457</v>
+        <v>6842456</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6270,7 +6222,7 @@
         <v>8728</v>
       </c>
       <c r="N30" s="7">
-        <v>7183247</v>
+        <v>7183246</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>32</v>
@@ -6284,7 +6236,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1426-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1426-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7305F6DC-B4FF-4213-9EA5-1BB5476157B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{503CDF75-F702-4C34-8A70-92E2EE6E32BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{180AB715-6A6C-43C5-9D21-CACC968415D7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{15AD67F8-8F72-4335-AC6A-76F24DC0C619}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="424">
   <si>
     <t>Población con diagnóstico de hipoacusia en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -88,1192 +88,1228 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,3%</t>
+    <t>2,66%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
     <t>1,54%</t>
   </si>
   <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
   </si>
   <si>
     <t>98,46%</t>
   </si>
   <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>99,06%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,64%</t>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>99,59%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipoacusia en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>98,85%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
   </si>
   <si>
     <t>0,43%</t>
   </si>
   <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>99,39%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,55%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>99,43%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipoacusia en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>98,77%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
     <t>4,36%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
   </si>
   <si>
     <t>95,64%</t>
   </si>
   <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>99,41%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,24%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,76%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,74%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>99,26%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,59%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipoacusia en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>99,64%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>10,51%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>89,49%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>17,02%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>82,98%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>84,7%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
   </si>
   <si>
     <t>5,66%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
   </si>
   <si>
     <t>94,34%</t>
   </si>
   <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>98,66%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>97,05%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
   </si>
   <si>
     <t>4,32%</t>
   </si>
   <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
   </si>
   <si>
     <t>95,68%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>98,9%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipoacusia en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
   </si>
 </sst>
 </file>
@@ -1685,7 +1721,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0E1505C-7848-4668-AE59-10BCC60822B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6A5BEB-0BAB-4B3E-AC52-8E781804D59F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2119,10 +2155,10 @@
         <v>37</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -2131,13 +2167,13 @@
         <v>10512</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2152,13 +2188,13 @@
         <v>318718</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="H11" s="7">
         <v>312</v>
@@ -2167,13 +2203,13 @@
         <v>335836</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>47</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="M11" s="7">
         <v>627</v>
@@ -2182,13 +2218,13 @@
         <v>654554</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2244,7 +2280,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2256,13 +2292,13 @@
         <v>8147</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>55</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -2271,13 +2307,13 @@
         <v>11868</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -2286,13 +2322,13 @@
         <v>20014</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2307,13 +2343,13 @@
         <v>660573</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>616</v>
@@ -2322,13 +2358,13 @@
         <v>664328</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>1234</v>
@@ -2337,13 +2373,13 @@
         <v>1324902</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,7 +2435,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2411,13 +2447,13 @@
         <v>7485</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -2426,13 +2462,13 @@
         <v>12045</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -2441,13 +2477,13 @@
         <v>19531</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2462,13 +2498,13 @@
         <v>205133</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H17" s="7">
         <v>201</v>
@@ -2581,13 +2617,13 @@
         <v>4269</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -2596,13 +2632,13 @@
         <v>12554</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2617,13 +2653,13 @@
         <v>265696</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H20" s="7">
         <v>264</v>
@@ -2632,13 +2668,13 @@
         <v>273827</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M20" s="7">
         <v>517</v>
@@ -2647,13 +2683,13 @@
         <v>539523</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2709,7 +2745,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2721,13 +2757,13 @@
         <v>16052</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -2736,13 +2772,13 @@
         <v>10602</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -2751,13 +2787,13 @@
         <v>26655</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2772,13 +2808,13 @@
         <v>646736</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H23" s="7">
         <v>626</v>
@@ -2787,13 +2823,13 @@
         <v>683251</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M23" s="7">
         <v>1230</v>
@@ -2802,13 +2838,13 @@
         <v>1329986</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,13 +2927,13 @@
         <v>7814</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -2906,13 +2942,13 @@
         <v>12138</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,13 +2963,13 @@
         <v>774774</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H26" s="7">
         <v>749</v>
@@ -2942,13 +2978,13 @@
         <v>814764</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="M26" s="7">
         <v>1462</v>
@@ -2957,13 +2993,13 @@
         <v>1589538</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>140</v>
+        <v>49</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3031,13 +3067,13 @@
         <v>52777</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H28" s="7">
         <v>60</v>
@@ -3046,13 +3082,13 @@
         <v>65865</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="M28" s="7">
         <v>107</v>
@@ -3061,13 +3097,13 @@
         <v>118642</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3118,13 @@
         <v>3374002</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="H29" s="7">
         <v>3236</v>
@@ -3097,28 +3133,28 @@
         <v>3489233</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>152</v>
+        <v>61</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="M29" s="7">
         <v>6398</v>
       </c>
       <c r="N29" s="7">
-        <v>6863236</v>
+        <v>6863235</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>156</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3160,7 +3196,7 @@
         <v>6505</v>
       </c>
       <c r="N30" s="7">
-        <v>6981878</v>
+        <v>6981877</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>32</v>
@@ -3174,7 +3210,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -3198,7 +3234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA3428DD-1B2C-44A9-9C9C-712E1B9EC0AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4EB4A5-ECE7-444C-AACF-BFB8B77583CC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3215,7 +3251,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3322,13 +3358,13 @@
         <v>7200</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3337,13 +3373,13 @@
         <v>8147</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>78</v>
+        <v>154</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -3352,13 +3388,13 @@
         <v>15347</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3373,13 +3409,13 @@
         <v>286561</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="H5" s="7">
         <v>269</v>
@@ -3388,13 +3424,13 @@
         <v>280556</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="M5" s="7">
         <v>528</v>
@@ -3403,13 +3439,13 @@
         <v>567117</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,13 +3513,13 @@
         <v>2644</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3492,13 +3528,13 @@
         <v>5672</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>35</v>
+        <v>173</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3507,13 +3543,13 @@
         <v>8316</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>90</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3528,13 +3564,13 @@
         <v>499931</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="H8" s="7">
         <v>479</v>
@@ -3543,13 +3579,13 @@
         <v>517412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>45</v>
+        <v>183</v>
       </c>
       <c r="M8" s="7">
         <v>951</v>
@@ -3558,10 +3594,10 @@
         <v>1017343</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>186</v>
@@ -3647,13 +3683,13 @@
         <v>3185</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>189</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>78</v>
+        <v>190</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3662,13 +3698,13 @@
         <v>4905</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>192</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,10 +3719,10 @@
         <v>316844</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>25</v>
@@ -3698,10 +3734,10 @@
         <v>333124</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>31</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>195</v>
@@ -3713,13 +3749,13 @@
         <v>649969</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3775,7 +3811,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3787,13 +3823,13 @@
         <v>7133</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3802,13 +3838,13 @@
         <v>3059</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3817,13 +3853,13 @@
         <v>10192</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>14</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3838,13 +3874,13 @@
         <v>362831</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>356</v>
@@ -3853,10 +3889,10 @@
         <v>384224</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>51</v>
+        <v>208</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>25</v>
@@ -3868,13 +3904,13 @@
         <v>747055</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>141</v>
+        <v>210</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3930,7 +3966,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3942,13 +3978,13 @@
         <v>2612</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>209</v>
+        <v>109</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>19</v>
+        <v>213</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3957,13 +3993,13 @@
         <v>8775</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -3972,13 +4008,13 @@
         <v>11387</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3993,10 +4029,10 @@
         <v>208609</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>216</v>
+        <v>118</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>27</v>
+        <v>220</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>25</v>
@@ -4008,13 +4044,13 @@
         <v>209812</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M17" s="7">
         <v>425</v>
@@ -4023,13 +4059,13 @@
         <v>418421</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4097,13 +4133,13 @@
         <v>5042</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>130</v>
+        <v>227</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -4112,13 +4148,13 @@
         <v>8114</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>114</v>
+        <v>230</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -4127,13 +4163,13 @@
         <v>13156</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>227</v>
+        <v>142</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4184,13 @@
         <v>258081</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>138</v>
+        <v>234</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="H20" s="7">
         <v>255</v>
@@ -4163,13 +4199,13 @@
         <v>265001</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>122</v>
+        <v>237</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="M20" s="7">
         <v>509</v>
@@ -4178,13 +4214,13 @@
         <v>523082</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>234</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4240,7 +4276,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4252,13 +4288,13 @@
         <v>13461</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>236</v>
+        <v>90</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -4267,13 +4303,13 @@
         <v>29795</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -4282,13 +4318,13 @@
         <v>43256</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>16</v>
+        <v>246</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4339,13 @@
         <v>643097</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>243</v>
+        <v>144</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>245</v>
+        <v>100</v>
       </c>
       <c r="H23" s="7">
         <v>620</v>
@@ -4318,13 +4354,13 @@
         <v>661499</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M23" s="7">
         <v>1186</v>
@@ -4333,13 +4369,13 @@
         <v>1304596</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>24</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4407,13 +4443,13 @@
         <v>9224</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>125</v>
+        <v>256</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -4422,13 +4458,13 @@
         <v>5419</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>191</v>
+        <v>259</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>254</v>
+        <v>18</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -4437,13 +4473,13 @@
         <v>14644</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>255</v>
+        <v>58</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>256</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4494,13 @@
         <v>769359</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>134</v>
+        <v>262</v>
       </c>
       <c r="H26" s="7">
         <v>750</v>
@@ -4473,13 +4509,13 @@
         <v>820748</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>260</v>
+        <v>28</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>198</v>
+        <v>264</v>
       </c>
       <c r="M26" s="7">
         <v>1490</v>
@@ -4488,13 +4524,13 @@
         <v>1590106</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>261</v>
+        <v>68</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>262</v>
+        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4562,13 +4598,13 @@
         <v>49037</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>130</v>
+        <v>266</v>
       </c>
       <c r="H28" s="7">
         <v>65</v>
@@ -4577,13 +4613,13 @@
         <v>72166</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>149</v>
+        <v>267</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M28" s="7">
         <v>115</v>
@@ -4592,13 +4628,13 @@
         <v>121203</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>192</v>
+        <v>270</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>145</v>
+        <v>271</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4613,13 +4649,13 @@
         <v>3345313</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>138</v>
+        <v>273</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="H29" s="7">
         <v>3273</v>
@@ -4628,13 +4664,13 @@
         <v>3472376</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>155</v>
+        <v>275</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="M29" s="7">
         <v>6454</v>
@@ -4643,13 +4679,13 @@
         <v>6817689</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>197</v>
+        <v>278</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>153</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4705,7 +4741,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -4729,7 +4765,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C8B5BD9-B5A9-450B-A9E6-74550C633534}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2296B10B-9FB5-4C54-980E-BCAAC8135849}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4746,7 +4782,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4853,13 +4889,13 @@
         <v>5234</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>255</v>
+        <v>58</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4868,13 +4904,13 @@
         <v>5700</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>38</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -4883,13 +4919,13 @@
         <v>10934</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>143</v>
+        <v>286</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,13 +4940,13 @@
         <v>255064</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>261</v>
+        <v>68</v>
       </c>
       <c r="H5" s="7">
         <v>526</v>
@@ -4919,13 +4955,13 @@
         <v>265703</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>46</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="M5" s="7">
         <v>849</v>
@@ -4934,13 +4970,13 @@
         <v>520766</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>150</v>
+        <v>293</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,13 +5044,13 @@
         <v>12192</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -5023,13 +5059,13 @@
         <v>11068</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>290</v>
+        <v>152</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -5038,13 +5074,13 @@
         <v>23259</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>145</v>
+        <v>302</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5095,13 @@
         <v>506035</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
       <c r="H8" s="7">
         <v>699</v>
@@ -5074,13 +5110,13 @@
         <v>542156</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>299</v>
+        <v>162</v>
       </c>
       <c r="M8" s="7">
         <v>1069</v>
@@ -5089,13 +5125,13 @@
         <v>1048192</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>153</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5199,13 @@
         <v>31168</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -5178,13 +5214,13 @@
         <v>22228</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>36</v>
+        <v>316</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
@@ -5193,13 +5229,13 @@
         <v>53395</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>307</v>
+        <v>318</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>308</v>
+        <v>319</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>309</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5250,13 @@
         <v>291072</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>311</v>
+        <v>322</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>312</v>
+        <v>323</v>
       </c>
       <c r="H11" s="7">
         <v>496</v>
@@ -5229,13 +5265,13 @@
         <v>351056</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>44</v>
+        <v>326</v>
       </c>
       <c r="M11" s="7">
         <v>813</v>
@@ -5244,13 +5280,13 @@
         <v>642129</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,7 +5342,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5318,13 +5354,13 @@
         <v>10759</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
@@ -5333,13 +5369,13 @@
         <v>16676</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>321</v>
+        <v>199</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>322</v>
+        <v>333</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -5348,13 +5384,13 @@
         <v>27435</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,13 +5405,13 @@
         <v>311481</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>328</v>
+        <v>339</v>
       </c>
       <c r="H14" s="7">
         <v>564</v>
@@ -5384,10 +5420,10 @@
         <v>411880</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>329</v>
+        <v>206</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>26</v>
@@ -5399,13 +5435,13 @@
         <v>723361</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5461,7 +5497,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5473,13 +5509,13 @@
         <v>14755</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -5488,13 +5524,13 @@
         <v>18307</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
@@ -5503,13 +5539,13 @@
         <v>33062</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5524,13 +5560,13 @@
         <v>181993</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="H17" s="7">
         <v>445</v>
@@ -5539,13 +5575,13 @@
         <v>212315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="M17" s="7">
         <v>698</v>
@@ -5554,13 +5590,13 @@
         <v>394308</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5628,13 +5664,13 @@
         <v>37950</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="H19" s="7">
         <v>77</v>
@@ -5643,13 +5679,13 @@
         <v>33723</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="M19" s="7">
         <v>150</v>
@@ -5658,13 +5694,13 @@
         <v>71672</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5679,13 +5715,13 @@
         <v>239273</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="H20" s="7">
         <v>382</v>
@@ -5694,13 +5730,13 @@
         <v>241182</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="M20" s="7">
         <v>680</v>
@@ -5709,13 +5745,13 @@
         <v>480455</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5771,7 +5807,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5783,13 +5819,13 @@
         <v>35453</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>226</v>
+        <v>380</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>370</v>
+        <v>381</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>371</v>
+        <v>382</v>
       </c>
       <c r="H22" s="7">
         <v>70</v>
@@ -5798,13 +5834,13 @@
         <v>48442</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>372</v>
+        <v>383</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>373</v>
+        <v>384</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>374</v>
+        <v>385</v>
       </c>
       <c r="M22" s="7">
         <v>110</v>
@@ -5813,13 +5849,13 @@
         <v>83895</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5834,13 +5870,13 @@
         <v>590380</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>231</v>
+        <v>389</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="H23" s="7">
         <v>888</v>
@@ -5849,13 +5885,13 @@
         <v>754903</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="M23" s="7">
         <v>1445</v>
@@ -5864,13 +5900,13 @@
         <v>1345283</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5938,13 +5974,13 @@
         <v>16551</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>290</v>
+        <v>152</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -5953,13 +5989,13 @@
         <v>20585</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -5968,13 +6004,13 @@
         <v>37136</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>390</v>
+        <v>257</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5989,13 +6025,13 @@
         <v>842877</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>299</v>
+        <v>162</v>
       </c>
       <c r="H26" s="7">
         <v>1031</v>
@@ -6004,13 +6040,13 @@
         <v>845087</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>393</v>
+        <v>404</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
       <c r="M26" s="7">
         <v>1773</v>
@@ -6019,13 +6055,13 @@
         <v>1687964</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>395</v>
+        <v>261</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>394</v>
+        <v>405</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6093,13 +6129,13 @@
         <v>164062</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="H28" s="7">
         <v>324</v>
@@ -6108,13 +6144,13 @@
         <v>176728</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="M28" s="7">
         <v>559</v>
@@ -6123,13 +6159,13 @@
         <v>340790</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>242</v>
+        <v>413</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>403</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6144,13 +6180,13 @@
         <v>3218174</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>404</v>
+        <v>415</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>405</v>
+        <v>416</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="H29" s="7">
         <v>5031</v>
@@ -6159,13 +6195,13 @@
         <v>3624282</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>407</v>
+        <v>418</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>408</v>
+        <v>419</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="M29" s="7">
         <v>8169</v>
@@ -6174,13 +6210,13 @@
         <v>6842456</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>411</v>
+        <v>422</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>250</v>
+        <v>423</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6236,7 +6272,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1426-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1426-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{503CDF75-F702-4C34-8A70-92E2EE6E32BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53A4B089-AA51-4FEA-B1BC-868ED6D1255A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{15AD67F8-8F72-4335-AC6A-76F24DC0C619}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0F83ECBB-1F5C-444C-A5EA-D6598592E35B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="428">
   <si>
     <t>Población con diagnóstico de hipoacusia en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Almeria</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>—%</t>
@@ -88,1228 +88,1240 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>2,66%</t>
+    <t>2,35%</t>
   </si>
   <si>
     <t>2,69%</t>
   </si>
   <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>98,48%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>99,41%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>98,24%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>99,61%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,14%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>99,86%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>98,59%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipoacusia en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>95,16%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,43%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>98,44%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>99,46%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,12%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>98,65%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>98,76%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
     <t>1,42%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>99,4%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
   </si>
   <si>
     <t>98,58%</t>
   </si>
   <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>98,48%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>6,2%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
   </si>
   <si>
     <t>0,91%</t>
   </si>
   <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,63%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
   </si>
   <si>
     <t>99,09%</t>
   </si>
   <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>99,5%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de hipoacusia en 2023 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,8%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,94%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>84,41%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
   </si>
   <si>
     <t>98,84%</t>
   </si>
   <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>99,86%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
-  </si>
-  <si>
-    <t>99,6%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>99,59%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>98,87%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipoacusia en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>98,85%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>98,43%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>99,47%</t>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
   </si>
   <si>
     <t>98,45%</t>
   </si>
   <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>98,92%</t>
-  </si>
-  <si>
-    <t>97,59%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>99,63%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>99,46%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>99,74%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>98,65%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>95,55%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>99,43%</t>
-  </si>
-  <si>
-    <t>99,34%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>98,95%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de hipoacusia en 2023 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>97,99%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>98,97%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>17,02%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>15,3%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>82,98%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>84,7%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
     <t>4,85%</t>
   </si>
   <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
   </si>
   <si>
     <t>4,65%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
   </si>
   <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
     <t>95,15%</t>
   </si>
   <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>95,76%</t>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>95,82%</t>
   </si>
   <si>
     <t>95,35%</t>
   </si>
   <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
   </si>
   <si>
     <t>95,26%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
   </si>
 </sst>
 </file>
@@ -1721,7 +1733,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA6A5BEB-0BAB-4B3E-AC52-8E781804D59F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4375DB82-05C2-4340-BE50-28712FE5327B}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2155,10 +2167,10 @@
         <v>37</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -2167,13 +2179,13 @@
         <v>10512</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2188,13 +2200,13 @@
         <v>318718</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" s="7">
         <v>312</v>
@@ -2203,13 +2215,13 @@
         <v>335836</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M11" s="7">
         <v>627</v>
@@ -2218,13 +2230,13 @@
         <v>654554</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2280,7 +2292,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2292,13 +2304,13 @@
         <v>8147</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -2307,13 +2319,13 @@
         <v>11868</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -2322,13 +2334,13 @@
         <v>20014</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2343,13 +2355,13 @@
         <v>660573</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H14" s="7">
         <v>616</v>
@@ -2358,13 +2370,13 @@
         <v>664328</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M14" s="7">
         <v>1234</v>
@@ -2373,13 +2385,13 @@
         <v>1324902</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,7 +2447,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2447,13 +2459,13 @@
         <v>7485</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -2462,13 +2474,13 @@
         <v>12045</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -2477,13 +2489,13 @@
         <v>19531</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2498,13 +2510,13 @@
         <v>205133</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>201</v>
@@ -2513,13 +2525,13 @@
         <v>207546</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M17" s="7">
         <v>390</v>
@@ -2528,13 +2540,13 @@
         <v>412678</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2590,7 +2602,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2602,13 +2614,13 @@
         <v>8285</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -2617,13 +2629,13 @@
         <v>4269</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -2632,13 +2644,13 @@
         <v>12554</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2653,13 +2665,13 @@
         <v>265696</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>264</v>
@@ -2668,13 +2680,13 @@
         <v>273827</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>517</v>
@@ -2683,13 +2695,13 @@
         <v>539523</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2745,7 +2757,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2757,13 +2769,13 @@
         <v>16052</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -2772,13 +2784,13 @@
         <v>10602</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>111</v>
+        <v>73</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -2787,13 +2799,13 @@
         <v>26655</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2808,13 +2820,13 @@
         <v>646736</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7">
         <v>626</v>
@@ -2823,13 +2835,13 @@
         <v>683251</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M23" s="7">
         <v>1230</v>
@@ -2838,13 +2850,13 @@
         <v>1329986</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,7 +2912,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2912,13 +2924,13 @@
         <v>4324</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -2927,13 +2939,13 @@
         <v>7814</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -2942,13 +2954,13 @@
         <v>12138</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>40</v>
+        <v>113</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>131</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2963,13 +2975,13 @@
         <v>774774</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="H26" s="7">
         <v>749</v>
@@ -2978,13 +2990,13 @@
         <v>814764</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="M26" s="7">
         <v>1462</v>
@@ -2993,13 +3005,13 @@
         <v>1589538</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3067,13 +3079,13 @@
         <v>52777</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H28" s="7">
         <v>60</v>
@@ -3082,13 +3094,13 @@
         <v>65865</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>53</v>
+        <v>145</v>
       </c>
       <c r="M28" s="7">
         <v>107</v>
@@ -3097,13 +3109,13 @@
         <v>118642</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>18</v>
+        <v>144</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3118,13 +3130,13 @@
         <v>3374002</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="H29" s="7">
         <v>3236</v>
@@ -3133,13 +3145,13 @@
         <v>3489233</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="M29" s="7">
         <v>6398</v>
@@ -3148,13 +3160,13 @@
         <v>6863235</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3210,7 +3222,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3234,7 +3246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B4EB4A5-ECE7-444C-AACF-BFB8B77583CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F11721-31E0-4976-9D70-993395983395}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3251,7 +3263,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3358,13 +3370,13 @@
         <v>7200</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3373,13 +3385,13 @@
         <v>8147</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -3388,13 +3400,13 @@
         <v>15347</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>158</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,13 +3421,13 @@
         <v>286561</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="H5" s="7">
         <v>269</v>
@@ -3424,13 +3436,13 @@
         <v>280556</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="M5" s="7">
         <v>528</v>
@@ -3439,13 +3451,13 @@
         <v>567117</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>168</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3513,13 +3525,13 @@
         <v>2644</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3528,13 +3540,13 @@
         <v>5672</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3543,13 +3555,13 @@
         <v>8316</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3564,13 +3576,13 @@
         <v>499931</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H8" s="7">
         <v>479</v>
@@ -3579,13 +3591,13 @@
         <v>517412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M8" s="7">
         <v>951</v>
@@ -3594,13 +3606,13 @@
         <v>1017343</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3668,13 +3680,13 @@
         <v>1721</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3683,13 +3695,13 @@
         <v>3185</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>21</v>
+        <v>130</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3698,13 +3710,13 @@
         <v>4905</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>20</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,10 +3731,10 @@
         <v>316844</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>25</v>
@@ -3734,13 +3746,13 @@
         <v>333124</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="M11" s="7">
         <v>662</v>
@@ -3749,13 +3761,13 @@
         <v>649969</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>29</v>
+        <v>201</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,7 +3823,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3823,13 +3835,13 @@
         <v>7133</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3838,13 +3850,13 @@
         <v>3059</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>160</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3853,13 +3865,13 @@
         <v>10192</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>14</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,13 +3886,13 @@
         <v>362831</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>356</v>
@@ -3889,10 +3901,10 @@
         <v>384224</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>209</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>25</v>
@@ -3904,13 +3916,13 @@
         <v>747055</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,7 +3978,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3978,13 +3990,13 @@
         <v>2612</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>109</v>
+        <v>215</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3993,13 +4005,13 @@
         <v>8775</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -4008,13 +4020,13 @@
         <v>11387</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,10 +4041,10 @@
         <v>208609</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>25</v>
@@ -4044,13 +4056,13 @@
         <v>209812</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>425</v>
@@ -4059,13 +4071,13 @@
         <v>418421</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,7 +4133,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4133,13 +4145,13 @@
         <v>5042</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -4148,13 +4160,13 @@
         <v>8114</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -4163,13 +4175,13 @@
         <v>13156</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>233</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,13 +4196,13 @@
         <v>258081</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H20" s="7">
         <v>255</v>
@@ -4199,13 +4211,13 @@
         <v>265001</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M20" s="7">
         <v>509</v>
@@ -4214,13 +4226,13 @@
         <v>523082</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4276,7 +4288,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4288,13 +4300,13 @@
         <v>13461</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>90</v>
+        <v>242</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -4303,13 +4315,13 @@
         <v>29795</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>243</v>
+        <v>79</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -4318,13 +4330,13 @@
         <v>43256</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4351,13 @@
         <v>643097</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>144</v>
+        <v>249</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>100</v>
+        <v>251</v>
       </c>
       <c r="H23" s="7">
         <v>620</v>
@@ -4354,13 +4366,13 @@
         <v>661499</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>251</v>
+        <v>89</v>
       </c>
       <c r="M23" s="7">
         <v>1186</v>
@@ -4369,13 +4381,13 @@
         <v>1304596</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4431,7 +4443,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4443,10 +4455,10 @@
         <v>9224</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>255</v>
+        <v>92</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>257</v>
@@ -4464,7 +4476,7 @@
         <v>259</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>18</v>
+        <v>94</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -4473,13 +4485,13 @@
         <v>14644</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>58</v>
+        <v>260</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>169</v>
+        <v>261</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>71</v>
+        <v>262</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4506,13 @@
         <v>769359</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>260</v>
+        <v>102</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>262</v>
+        <v>237</v>
       </c>
       <c r="H26" s="7">
         <v>750</v>
@@ -4509,13 +4521,13 @@
         <v>820748</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M26" s="7">
         <v>1490</v>
@@ -4524,13 +4536,13 @@
         <v>1590106</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>68</v>
+        <v>266</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>81</v>
+        <v>267</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>178</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,13 +4610,13 @@
         <v>49037</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>265</v>
+        <v>158</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H28" s="7">
         <v>65</v>
@@ -4613,13 +4625,13 @@
         <v>72166</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>268</v>
+        <v>181</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="M28" s="7">
         <v>115</v>
@@ -4628,13 +4640,13 @@
         <v>121203</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4661,13 @@
         <v>3345313</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>3273</v>
@@ -4664,13 +4676,13 @@
         <v>3472376</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>277</v>
+        <v>189</v>
       </c>
       <c r="M29" s="7">
         <v>6454</v>
@@ -4679,13 +4691,13 @@
         <v>6817689</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4741,7 +4753,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -4765,7 +4777,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2296B10B-9FB5-4C54-980E-BCAAC8135849}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11798595-D024-4ADA-AEE1-D483FA6BA42C}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4782,7 +4794,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4889,13 +4901,13 @@
         <v>5234</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>58</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -4904,13 +4916,13 @@
         <v>5700</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>38</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -4919,13 +4931,13 @@
         <v>10934</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4940,13 +4952,13 @@
         <v>255064</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>68</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
         <v>526</v>
@@ -4955,13 +4967,13 @@
         <v>265703</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>46</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
         <v>849</v>
@@ -4970,13 +4982,13 @@
         <v>520766</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5044,13 +5056,13 @@
         <v>12192</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>296</v>
+        <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>297</v>
+        <v>53</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
@@ -5059,13 +5071,13 @@
         <v>11068</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>299</v>
+        <v>142</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>152</v>
+        <v>303</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
@@ -5074,13 +5086,13 @@
         <v>23259</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>301</v>
+        <v>257</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5095,13 +5107,13 @@
         <v>506035</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>304</v>
+        <v>24</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>306</v>
+        <v>62</v>
       </c>
       <c r="H8" s="7">
         <v>699</v>
@@ -5110,13 +5122,13 @@
         <v>542156</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>307</v>
+        <v>148</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>308</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>162</v>
+        <v>309</v>
       </c>
       <c r="M8" s="7">
         <v>1069</v>
@@ -5125,7 +5137,7 @@
         <v>1048192</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>309</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>310</v>
@@ -5342,7 +5354,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5369,13 +5381,13 @@
         <v>16676</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>199</v>
+        <v>333</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>17</v>
+        <v>334</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
@@ -5384,13 +5396,13 @@
         <v>27435</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5405,13 +5417,13 @@
         <v>311481</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H14" s="7">
         <v>564</v>
@@ -5420,13 +5432,13 @@
         <v>411880</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>342</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>26</v>
+        <v>344</v>
       </c>
       <c r="M14" s="7">
         <v>842</v>
@@ -5435,13 +5447,13 @@
         <v>723361</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5497,7 +5509,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5509,13 +5521,13 @@
         <v>14755</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -5524,13 +5536,13 @@
         <v>18307</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
@@ -5539,13 +5551,13 @@
         <v>33062</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,13 +5572,13 @@
         <v>181993</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="H17" s="7">
         <v>445</v>
@@ -5575,13 +5587,13 @@
         <v>212315</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M17" s="7">
         <v>698</v>
@@ -5590,13 +5602,13 @@
         <v>394308</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5652,7 +5664,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5664,13 +5676,13 @@
         <v>37950</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="H19" s="7">
         <v>77</v>
@@ -5679,13 +5691,13 @@
         <v>33723</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="M19" s="7">
         <v>150</v>
@@ -5694,13 +5706,13 @@
         <v>71672</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5727,13 @@
         <v>239273</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H20" s="7">
         <v>382</v>
@@ -5730,13 +5742,13 @@
         <v>241182</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="M20" s="7">
         <v>680</v>
@@ -5745,13 +5757,13 @@
         <v>480455</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5807,7 +5819,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5819,13 +5831,13 @@
         <v>35453</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="H22" s="7">
         <v>70</v>
@@ -5834,13 +5846,13 @@
         <v>48442</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="M22" s="7">
         <v>110</v>
@@ -5849,13 +5861,13 @@
         <v>83895</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>386</v>
+        <v>234</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,13 +5882,13 @@
         <v>590380</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H23" s="7">
         <v>888</v>
@@ -5885,13 +5897,13 @@
         <v>754903</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="M23" s="7">
         <v>1445</v>
@@ -5900,13 +5912,13 @@
         <v>1345283</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>395</v>
+        <v>239</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,7 +5974,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5974,13 +5986,13 @@
         <v>16551</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>152</v>
+        <v>400</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="H25" s="7">
         <v>30</v>
@@ -5989,13 +6001,13 @@
         <v>20585</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>401</v>
+        <v>243</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
@@ -6004,13 +6016,13 @@
         <v>37136</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>257</v>
+        <v>404</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>41</v>
+        <v>406</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6025,13 +6037,13 @@
         <v>842877</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>162</v>
+        <v>408</v>
       </c>
       <c r="H26" s="7">
         <v>1031</v>
@@ -6040,13 +6052,13 @@
         <v>845087</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>404</v>
+        <v>250</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>405</v>
+        <v>410</v>
       </c>
       <c r="M26" s="7">
         <v>1773</v>
@@ -6055,13 +6067,13 @@
         <v>1687964</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>261</v>
+        <v>411</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>48</v>
+        <v>412</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6129,13 +6141,13 @@
         <v>164062</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="H28" s="7">
         <v>324</v>
@@ -6144,13 +6156,13 @@
         <v>176728</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="M28" s="7">
         <v>559</v>
@@ -6159,13 +6171,13 @@
         <v>340790</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>413</v>
+        <v>244</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6180,13 +6192,13 @@
         <v>3218174</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="H29" s="7">
         <v>5031</v>
@@ -6195,28 +6207,28 @@
         <v>3624282</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="M29" s="7">
         <v>8169</v>
       </c>
       <c r="N29" s="7">
-        <v>6842456</v>
+        <v>6842457</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>423</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6258,7 +6270,7 @@
         <v>8728</v>
       </c>
       <c r="N30" s="7">
-        <v>7183246</v>
+        <v>7183247</v>
       </c>
       <c r="O30" s="7" t="s">
         <v>32</v>
@@ -6272,7 +6284,7 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1426-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1426-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53A4B089-AA51-4FEA-B1BC-868ED6D1255A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{61BD0910-F046-40F3-8439-9641C62E3B39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0F83ECBB-1F5C-444C-A5EA-D6598592E35B}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{259D1425-C6CC-441E-B88A-A7836D8A48D3}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="421">
   <si>
     <t>Población con diagnóstico de hipoacusia en 2012 (Tasa respuesta: 99,97%)</t>
   </si>
@@ -73,12 +73,66 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>99,37%</t>
+  </si>
+  <si>
+    <t>97,59%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -136,9 +190,6 @@
     <t>99,07%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -199,58 +250,58 @@
     <t>Granada</t>
   </si>
   <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>98,24%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,08%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>99,74%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
   </si>
   <si>
     <t>Huelva</t>
@@ -268,9 +319,6 @@
     <t>5,49%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
     <t>9,56%</t>
   </si>
   <si>
@@ -298,9 +346,6 @@
     <t>90,44%</t>
   </si>
   <si>
-    <t>97,15%</t>
-  </si>
-  <si>
     <t>95,48%</t>
   </si>
   <si>
@@ -388,9 +433,6 @@
     <t>1,96%</t>
   </si>
   <si>
-    <t>1,27%</t>
-  </si>
-  <si>
     <t>2,92%</t>
   </si>
   <si>
@@ -415,9 +457,6 @@
     <t>97,08%</t>
   </si>
   <si>
-    <t>98,73%</t>
-  </si>
-  <si>
     <t>Sevilla</t>
   </si>
   <si>
@@ -619,9 +658,6 @@
     <t>1,77%</t>
   </si>
   <si>
-    <t>0,26%</t>
-  </si>
-  <si>
     <t>2,46%</t>
   </si>
   <si>
@@ -640,9 +676,6 @@
     <t>97,54%</t>
   </si>
   <si>
-    <t>99,74%</t>
-  </si>
-  <si>
     <t>98,12%</t>
   </si>
   <si>
@@ -763,9 +796,6 @@
     <t>98,58%</t>
   </si>
   <si>
-    <t>2,05%</t>
-  </si>
-  <si>
     <t>1,17%</t>
   </si>
   <si>
@@ -787,9 +817,6 @@
     <t>4,27%</t>
   </si>
   <si>
-    <t>97,95%</t>
-  </si>
-  <si>
     <t>96,62%</t>
   </si>
   <si>
@@ -811,9 +838,6 @@
     <t>97,7%</t>
   </si>
   <si>
-    <t>2,17%</t>
-  </si>
-  <si>
     <t>0,66%</t>
   </si>
   <si>
@@ -829,9 +853,6 @@
     <t>1,48%</t>
   </si>
   <si>
-    <t>97,83%</t>
-  </si>
-  <si>
     <t>99,34%</t>
   </si>
   <si>
@@ -892,436 +913,394 @@
     <t>Población con diagnóstico de hipoacusia en 2023 (Tasa respuesta: 99,83%)</t>
   </si>
   <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
     <t>2,01%</t>
   </si>
   <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>99,2%</t>
   </si>
   <si>
     <t>97,99%</t>
   </si>
   <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>99,12%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,94%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
   </si>
   <si>
     <t>3,27%</t>
   </si>
   <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
   </si>
   <si>
     <t>96,73%</t>
   </si>
   <si>
-    <t>98,94%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>94,05%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>95,75%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
   </si>
   <si>
     <t>4,97%</t>
   </si>
   <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
   </si>
   <si>
     <t>95,03%</t>
   </si>
   <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
   </si>
   <si>
     <t>90,31%</t>
   </si>
   <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>87,74%</t>
+  </si>
+  <si>
+    <t>84,43%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>84,97%</t>
+  </si>
+  <si>
+    <t>89,13%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
   </si>
   <si>
     <t>7,3%</t>
   </si>
   <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
   </si>
   <si>
     <t>92,7%</t>
   </si>
   <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>96,5%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
   </si>
 </sst>
 </file>
@@ -1733,7 +1712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4375DB82-05C2-4340-BE50-28712FE5327B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5528C375-30CA-4716-B2BA-66515769CBEE}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1851,88 +1830,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5055</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="7">
+        <v>6</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6915</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="7">
         <v>11</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>11971</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>277</v>
+      </c>
+      <c r="D5" s="7">
+        <v>289683</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>250</v>
+      </c>
+      <c r="I5" s="7">
+        <v>280330</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>527</v>
+      </c>
+      <c r="N5" s="7">
+        <v>570012</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,48 +1932,54 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D6" s="7">
+        <v>294738</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I6" s="7">
+        <v>287245</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N6" s="7">
+        <v>581983</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -1994,13 +1991,13 @@
         <v>3155</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
         <v>12</v>
@@ -2009,13 +2006,13 @@
         <v>14082</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>14</v>
@@ -2024,19 +2021,19 @@
         <v>17237</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>470</v>
@@ -2045,13 +2042,13 @@
         <v>502372</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
         <v>468</v>
@@ -2060,13 +2057,13 @@
         <v>509683</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>938</v>
@@ -2075,13 +2072,13 @@
         <v>1012055</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2096,13 +2093,13 @@
         <v>505527</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>480</v>
@@ -2111,13 +2108,13 @@
         <v>523765</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>952</v>
@@ -2126,18 +2123,18 @@
         <v>1029292</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2149,13 +2146,13 @@
         <v>5328</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
         <v>5</v>
@@ -2164,13 +2161,13 @@
         <v>5184</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>9</v>
@@ -2179,19 +2176,19 @@
         <v>10512</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>315</v>
@@ -2200,13 +2197,13 @@
         <v>318718</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>44</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>312</v>
@@ -2215,13 +2212,13 @@
         <v>335836</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>627</v>
@@ -2230,13 +2227,13 @@
         <v>654554</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2251,13 +2248,13 @@
         <v>324046</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>317</v>
@@ -2266,13 +2263,13 @@
         <v>341020</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>636</v>
@@ -2281,117 +2278,117 @@
         <v>665066</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>3</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3092</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="7">
+        <v>5</v>
+      </c>
+      <c r="I13" s="7">
+        <v>4952</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="M13" s="7">
         <v>8</v>
       </c>
-      <c r="D13" s="7">
-        <v>8147</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="7">
-        <v>11</v>
-      </c>
-      <c r="I13" s="7">
-        <v>11868</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="M13" s="7">
-        <v>19</v>
-      </c>
       <c r="N13" s="7">
-        <v>20014</v>
+        <v>8044</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>618</v>
+        <v>341</v>
       </c>
       <c r="D14" s="7">
-        <v>660573</v>
+        <v>370890</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>616</v>
+        <v>366</v>
       </c>
       <c r="I14" s="7">
-        <v>664328</v>
+        <v>383999</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1234</v>
+        <v>707</v>
       </c>
       <c r="N14" s="7">
-        <v>1324902</v>
+        <v>754889</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2400,54 +2397,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D15" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I15" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N15" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2459,13 +2456,13 @@
         <v>7485</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>11</v>
@@ -2474,13 +2471,13 @@
         <v>12045</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>18</v>
@@ -2489,19 +2486,19 @@
         <v>19531</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>189</v>
@@ -2510,13 +2507,13 @@
         <v>205133</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>201</v>
@@ -2525,13 +2522,13 @@
         <v>207546</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="M17" s="7">
         <v>390</v>
@@ -2540,13 +2537,13 @@
         <v>412678</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2561,13 +2558,13 @@
         <v>212618</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>212</v>
@@ -2576,13 +2573,13 @@
         <v>219591</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>408</v>
@@ -2591,18 +2588,18 @@
         <v>432209</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -2614,13 +2611,13 @@
         <v>8285</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="H19" s="7">
         <v>4</v>
@@ -2629,13 +2626,13 @@
         <v>4269</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>12</v>
@@ -2644,19 +2641,19 @@
         <v>12554</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>253</v>
@@ -2665,13 +2662,13 @@
         <v>265696</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>264</v>
@@ -2680,13 +2677,13 @@
         <v>273827</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>517</v>
@@ -2695,13 +2692,13 @@
         <v>539523</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2716,13 +2713,13 @@
         <v>273981</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>268</v>
@@ -2731,13 +2728,13 @@
         <v>278096</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>529</v>
@@ -2746,18 +2743,18 @@
         <v>552077</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -2769,13 +2766,13 @@
         <v>16052</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="H22" s="7">
         <v>10</v>
@@ -2784,13 +2781,13 @@
         <v>10602</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="M22" s="7">
         <v>24</v>
@@ -2799,19 +2796,19 @@
         <v>26655</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>604</v>
@@ -2820,13 +2817,13 @@
         <v>646736</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="H23" s="7">
         <v>626</v>
@@ -2835,13 +2832,13 @@
         <v>683251</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="M23" s="7">
         <v>1230</v>
@@ -2850,13 +2847,13 @@
         <v>1329986</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2871,13 +2868,13 @@
         <v>662788</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>636</v>
@@ -2886,13 +2883,13 @@
         <v>693853</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1254</v>
@@ -2901,18 +2898,18 @@
         <v>1356641</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -2924,13 +2921,13 @@
         <v>4324</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="H25" s="7">
         <v>7</v>
@@ -2939,13 +2936,13 @@
         <v>7814</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="M25" s="7">
         <v>11</v>
@@ -2954,19 +2951,19 @@
         <v>12138</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>713</v>
@@ -2975,13 +2972,13 @@
         <v>774774</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="H26" s="7">
         <v>749</v>
@@ -2990,13 +2987,13 @@
         <v>814764</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="M26" s="7">
         <v>1462</v>
@@ -3005,13 +3002,13 @@
         <v>1589538</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>140</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,13 +3023,13 @@
         <v>779098</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>756</v>
@@ -3041,13 +3038,13 @@
         <v>822578</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1473</v>
@@ -3056,13 +3053,13 @@
         <v>1601676</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -3079,13 +3076,13 @@
         <v>52777</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>141</v>
+        <v>154</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="H28" s="7">
         <v>60</v>
@@ -3094,13 +3091,13 @@
         <v>65865</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>143</v>
+        <v>156</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>145</v>
+        <v>158</v>
       </c>
       <c r="M28" s="7">
         <v>107</v>
@@ -3109,19 +3106,19 @@
         <v>118642</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>146</v>
+        <v>159</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>144</v>
+        <v>157</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3162</v>
@@ -3130,13 +3127,13 @@
         <v>3374002</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="H29" s="7">
         <v>3236</v>
@@ -3145,13 +3142,13 @@
         <v>3489233</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="M29" s="7">
         <v>6398</v>
@@ -3160,13 +3157,13 @@
         <v>6863235</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,13 +3178,13 @@
         <v>3426779</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3296</v>
@@ -3196,13 +3193,13 @@
         <v>3555098</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6505</v>
@@ -3211,18 +3208,18 @@
         <v>6981877</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3246,7 +3243,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66F11721-31E0-4976-9D70-993395983395}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D637229A-6C15-4954-821C-05F487034115}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3263,7 +3260,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3370,13 +3367,13 @@
         <v>7200</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -3385,13 +3382,13 @@
         <v>8147</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>174</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="M4" s="7">
         <v>15</v>
@@ -3400,19 +3397,19 @@
         <v>15347</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>259</v>
@@ -3421,13 +3418,13 @@
         <v>286561</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="H5" s="7">
         <v>269</v>
@@ -3436,13 +3433,13 @@
         <v>280556</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="M5" s="7">
         <v>528</v>
@@ -3451,13 +3448,13 @@
         <v>567117</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,13 +3469,13 @@
         <v>293761</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>277</v>
@@ -3487,13 +3484,13 @@
         <v>288703</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>543</v>
@@ -3502,18 +3499,18 @@
         <v>582464</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -3525,13 +3522,13 @@
         <v>2644</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="H7" s="7">
         <v>5</v>
@@ -3540,13 +3537,13 @@
         <v>5672</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="M7" s="7">
         <v>8</v>
@@ -3555,19 +3552,19 @@
         <v>8316</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>472</v>
@@ -3576,13 +3573,13 @@
         <v>499931</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="H8" s="7">
         <v>479</v>
@@ -3591,13 +3588,13 @@
         <v>517412</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="M8" s="7">
         <v>951</v>
@@ -3606,13 +3603,13 @@
         <v>1017343</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3627,13 +3624,13 @@
         <v>502575</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>484</v>
@@ -3642,13 +3639,13 @@
         <v>523084</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>959</v>
@@ -3657,18 +3654,18 @@
         <v>1025659</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3680,13 +3677,13 @@
         <v>1721</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -3695,13 +3692,13 @@
         <v>3185</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>193</v>
+        <v>71</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -3710,19 +3707,19 @@
         <v>4905</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>333</v>
@@ -3731,13 +3728,13 @@
         <v>316844</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H11" s="7">
         <v>329</v>
@@ -3746,13 +3743,13 @@
         <v>333124</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>200</v>
+        <v>81</v>
       </c>
       <c r="M11" s="7">
         <v>662</v>
@@ -3761,13 +3758,13 @@
         <v>649969</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,13 +3779,13 @@
         <v>318565</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>332</v>
@@ -3797,13 +3794,13 @@
         <v>336309</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>667</v>
@@ -3812,18 +3809,18 @@
         <v>654874</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -3835,13 +3832,13 @@
         <v>7133</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -3850,13 +3847,13 @@
         <v>3059</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>160</v>
+        <v>173</v>
       </c>
       <c r="M13" s="7">
         <v>9</v>
@@ -3865,19 +3862,19 @@
         <v>10192</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>347</v>
@@ -3886,13 +3883,13 @@
         <v>362831</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
       <c r="H14" s="7">
         <v>356</v>
@@ -3901,13 +3898,13 @@
         <v>384224</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="M14" s="7">
         <v>703</v>
@@ -3916,13 +3913,13 @@
         <v>747055</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>23</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,13 +3934,13 @@
         <v>369964</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>358</v>
@@ -3952,13 +3949,13 @@
         <v>387283</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>712</v>
@@ -3967,18 +3964,18 @@
         <v>757247</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3990,13 +3987,13 @@
         <v>2612</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -4005,13 +4002,13 @@
         <v>8775</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="M16" s="7">
         <v>10</v>
@@ -4020,19 +4017,19 @@
         <v>11387</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>210</v>
@@ -4041,13 +4038,13 @@
         <v>208609</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="H17" s="7">
         <v>215</v>
@@ -4056,13 +4053,13 @@
         <v>209812</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="M17" s="7">
         <v>425</v>
@@ -4071,13 +4068,13 @@
         <v>418421</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4092,13 +4089,13 @@
         <v>211221</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>223</v>
@@ -4107,13 +4104,13 @@
         <v>218587</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>435</v>
@@ -4122,18 +4119,18 @@
         <v>429808</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -4145,13 +4142,13 @@
         <v>5042</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="H19" s="7">
         <v>8</v>
@@ -4160,13 +4157,13 @@
         <v>8114</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="M19" s="7">
         <v>13</v>
@@ -4175,19 +4172,19 @@
         <v>13156</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>116</v>
+        <v>73</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>254</v>
@@ -4196,13 +4193,13 @@
         <v>258081</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="H20" s="7">
         <v>255</v>
@@ -4211,13 +4208,13 @@
         <v>265001</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="M20" s="7">
         <v>509</v>
@@ -4226,13 +4223,13 @@
         <v>523082</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>125</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4247,13 +4244,13 @@
         <v>263123</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>263</v>
@@ -4262,13 +4259,13 @@
         <v>273115</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>522</v>
@@ -4277,18 +4274,18 @@
         <v>536238</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4300,13 +4297,13 @@
         <v>13461</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>241</v>
+        <v>78</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="H22" s="7">
         <v>26</v>
@@ -4315,13 +4312,13 @@
         <v>29795</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="M22" s="7">
         <v>40</v>
@@ -4330,19 +4327,19 @@
         <v>43256</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>566</v>
@@ -4351,13 +4348,13 @@
         <v>643097</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>249</v>
+        <v>86</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="H23" s="7">
         <v>620</v>
@@ -4366,13 +4363,13 @@
         <v>661499</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="M23" s="7">
         <v>1186</v>
@@ -4381,13 +4378,13 @@
         <v>1304596</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,13 +4399,13 @@
         <v>656558</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>646</v>
@@ -4417,13 +4414,13 @@
         <v>691294</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1226</v>
@@ -4432,18 +4429,18 @@
         <v>1347852</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -4455,13 +4452,13 @@
         <v>9224</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>257</v>
+        <v>72</v>
       </c>
       <c r="H25" s="7">
         <v>5</v>
@@ -4470,13 +4467,13 @@
         <v>5419</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -4485,19 +4482,19 @@
         <v>14644</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>740</v>
@@ -4506,13 +4503,13 @@
         <v>769359</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>263</v>
+        <v>80</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
       <c r="H26" s="7">
         <v>750</v>
@@ -4521,13 +4518,13 @@
         <v>820748</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="M26" s="7">
         <v>1490</v>
@@ -4536,13 +4533,13 @@
         <v>1590106</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +4554,13 @@
         <v>778583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>755</v>
@@ -4572,13 +4569,13 @@
         <v>826167</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1505</v>
@@ -4587,13 +4584,13 @@
         <v>1604750</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,13 +4607,13 @@
         <v>49037</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="H28" s="7">
         <v>65</v>
@@ -4625,13 +4622,13 @@
         <v>72166</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="M28" s="7">
         <v>115</v>
@@ -4640,19 +4637,19 @@
         <v>121203</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3181</v>
@@ -4661,13 +4658,13 @@
         <v>3345313</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="H29" s="7">
         <v>3273</v>
@@ -4676,13 +4673,13 @@
         <v>3472376</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="M29" s="7">
         <v>6454</v>
@@ -4691,13 +4688,13 @@
         <v>6817689</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,13 +4709,13 @@
         <v>3394350</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>3338</v>
@@ -4727,13 +4724,13 @@
         <v>3544542</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>6569</v>
@@ -4742,18 +4739,18 @@
         <v>6938892</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -4777,7 +4774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11798595-D024-4ADA-AEE1-D483FA6BA42C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEC7DA0-C211-402C-BAB9-1961A96467E9}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4794,7 +4791,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4898,97 +4895,97 @@
         <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>5234</v>
+        <v>5738</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>285</v>
+        <v>292</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>286</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>5700</v>
+        <v>5817</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>288</v>
+        <v>189</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>10934</v>
+        <v>11555</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>290</v>
+        <v>240</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>323</v>
       </c>
       <c r="D5" s="7">
-        <v>255064</v>
+        <v>305705</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>294</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H5" s="7">
         <v>526</v>
       </c>
       <c r="I5" s="7">
-        <v>265703</v>
+        <v>283818</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>298</v>
+        <v>198</v>
       </c>
       <c r="M5" s="7">
         <v>849</v>
       </c>
       <c r="N5" s="7">
-        <v>520766</v>
+        <v>589522</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>299</v>
+        <v>246</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,51 +4997,51 @@
         <v>331</v>
       </c>
       <c r="D6" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
         <v>538</v>
       </c>
       <c r="I6" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
         <v>869</v>
       </c>
       <c r="N6" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
@@ -5053,97 +5050,97 @@
         <v>11</v>
       </c>
       <c r="D7" s="7">
-        <v>12192</v>
+        <v>11492</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>303</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>53</v>
+        <v>252</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H7" s="7">
         <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>11068</v>
+        <v>9821</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>142</v>
+        <v>305</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>303</v>
+        <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="M7" s="7">
         <v>27</v>
       </c>
       <c r="N7" s="7">
-        <v>23259</v>
+        <v>21312</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>305</v>
+        <v>231</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
         <v>370</v>
       </c>
       <c r="D8" s="7">
-        <v>506035</v>
+        <v>505901</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>24</v>
+        <v>309</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>62</v>
+        <v>260</v>
       </c>
       <c r="H8" s="7">
         <v>699</v>
       </c>
       <c r="I8" s="7">
-        <v>542156</v>
+        <v>503870</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>148</v>
+        <v>311</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>309</v>
+        <v>26</v>
       </c>
       <c r="M8" s="7">
         <v>1069</v>
       </c>
       <c r="N8" s="7">
-        <v>1048192</v>
+        <v>1009772</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>311</v>
+        <v>239</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5155,51 +5152,51 @@
         <v>381</v>
       </c>
       <c r="D9" s="7">
-        <v>518227</v>
+        <v>517393</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>715</v>
       </c>
       <c r="I9" s="7">
-        <v>553224</v>
+        <v>513691</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>1096</v>
       </c>
       <c r="N9" s="7">
-        <v>1071451</v>
+        <v>1031084</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5208,97 +5205,97 @@
         <v>43</v>
       </c>
       <c r="D10" s="7">
-        <v>31168</v>
+        <v>29645</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
       </c>
       <c r="I10" s="7">
-        <v>22228</v>
+        <v>20214</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M10" s="7">
         <v>83</v>
       </c>
       <c r="N10" s="7">
-        <v>53395</v>
+        <v>49859</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>317</v>
       </c>
       <c r="D11" s="7">
-        <v>291072</v>
+        <v>286405</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="H11" s="7">
         <v>496</v>
       </c>
       <c r="I11" s="7">
-        <v>351056</v>
+        <v>328914</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M11" s="7">
         <v>813</v>
       </c>
       <c r="N11" s="7">
-        <v>642129</v>
+        <v>615319</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5310,51 +5307,51 @@
         <v>360</v>
       </c>
       <c r="D12" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
         <v>536</v>
       </c>
       <c r="I12" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
         <v>896</v>
       </c>
       <c r="N12" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -5363,97 +5360,97 @@
         <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>10759</v>
+        <v>9916</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="H13" s="7">
         <v>35</v>
       </c>
       <c r="I13" s="7">
-        <v>16676</v>
+        <v>15544</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>334</v>
+        <v>277</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="M13" s="7">
         <v>49</v>
       </c>
       <c r="N13" s="7">
-        <v>27435</v>
+        <v>25459</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
         <v>278</v>
       </c>
       <c r="D14" s="7">
-        <v>311481</v>
+        <v>302641</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H14" s="7">
         <v>564</v>
       </c>
       <c r="I14" s="7">
-        <v>411880</v>
+        <v>460174</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>344</v>
+        <v>284</v>
       </c>
       <c r="M14" s="7">
         <v>842</v>
       </c>
       <c r="N14" s="7">
-        <v>723361</v>
+        <v>762815</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5465,51 +5462,51 @@
         <v>292</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>599</v>
       </c>
       <c r="I15" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>891</v>
       </c>
       <c r="N15" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5518,25 +5515,25 @@
         <v>26</v>
       </c>
       <c r="D16" s="7">
-        <v>14755</v>
+        <v>13426</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
       </c>
       <c r="I16" s="7">
-        <v>18307</v>
+        <v>16491</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>351</v>
+        <v>320</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>352</v>
@@ -5548,7 +5545,7 @@
         <v>70</v>
       </c>
       <c r="N16" s="7">
-        <v>33062</v>
+        <v>29916</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>354</v>
@@ -5563,13 +5560,13 @@
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>253</v>
       </c>
       <c r="D17" s="7">
-        <v>181993</v>
+        <v>165316</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>357</v>
@@ -5584,31 +5581,31 @@
         <v>445</v>
       </c>
       <c r="I17" s="7">
-        <v>212315</v>
+        <v>190991</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="M17" s="7">
         <v>698</v>
       </c>
       <c r="N17" s="7">
-        <v>394308</v>
+        <v>356308</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5620,51 +5617,51 @@
         <v>279</v>
       </c>
       <c r="D18" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
         <v>489</v>
       </c>
       <c r="I18" s="7">
-        <v>230622</v>
+        <v>207482</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
         <v>768</v>
       </c>
       <c r="N18" s="7">
-        <v>427370</v>
+        <v>386224</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>10</v>
@@ -5673,97 +5670,97 @@
         <v>73</v>
       </c>
       <c r="D19" s="7">
-        <v>37950</v>
+        <v>36257</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="H19" s="7">
         <v>77</v>
       </c>
       <c r="I19" s="7">
-        <v>33723</v>
+        <v>31437</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M19" s="7">
         <v>150</v>
       </c>
       <c r="N19" s="7">
-        <v>71672</v>
+        <v>67695</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7">
         <v>298</v>
       </c>
       <c r="D20" s="7">
-        <v>239273</v>
+        <v>233379</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H20" s="7">
         <v>382</v>
       </c>
       <c r="I20" s="7">
-        <v>241182</v>
+        <v>224950</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M20" s="7">
         <v>680</v>
       </c>
       <c r="N20" s="7">
-        <v>480455</v>
+        <v>458328</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5775,51 +5772,51 @@
         <v>371</v>
       </c>
       <c r="D21" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>459</v>
       </c>
       <c r="I21" s="7">
-        <v>274905</v>
+        <v>256387</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>830</v>
       </c>
       <c r="N21" s="7">
-        <v>552127</v>
+        <v>526023</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -5828,97 +5825,97 @@
         <v>40</v>
       </c>
       <c r="D22" s="7">
-        <v>35453</v>
+        <v>33612</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>385</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>386</v>
       </c>
       <c r="H22" s="7">
         <v>70</v>
       </c>
       <c r="I22" s="7">
-        <v>48442</v>
+        <v>43775</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>388</v>
+        <v>158</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="M22" s="7">
         <v>110</v>
       </c>
       <c r="N22" s="7">
-        <v>83895</v>
+        <v>77387</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>234</v>
+        <v>387</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>557</v>
       </c>
       <c r="D23" s="7">
-        <v>590380</v>
+        <v>588777</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>392</v>
+        <v>182</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="H23" s="7">
         <v>888</v>
       </c>
       <c r="I23" s="7">
-        <v>754903</v>
+        <v>804698</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>397</v>
+        <v>164</v>
       </c>
       <c r="M23" s="7">
         <v>1445</v>
       </c>
       <c r="N23" s="7">
-        <v>1345283</v>
+        <v>1393475</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>239</v>
+        <v>394</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5930,51 +5927,51 @@
         <v>597</v>
       </c>
       <c r="D24" s="7">
-        <v>625833</v>
+        <v>622389</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H24" s="7">
         <v>958</v>
       </c>
       <c r="I24" s="7">
-        <v>803345</v>
+        <v>848473</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M24" s="7">
         <v>1555</v>
       </c>
       <c r="N24" s="7">
-        <v>1429178</v>
+        <v>1470862</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>10</v>
@@ -5983,97 +5980,97 @@
         <v>20</v>
       </c>
       <c r="D25" s="7">
-        <v>16551</v>
+        <v>14051</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>203</v>
+        <v>397</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H25" s="7">
+        <v>30</v>
+      </c>
+      <c r="I25" s="7">
+        <v>17302</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="H25" s="7">
-        <v>30</v>
-      </c>
-      <c r="I25" s="7">
-        <v>20585</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="M25" s="7">
         <v>50</v>
       </c>
       <c r="N25" s="7">
-        <v>37136</v>
+        <v>31353</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>404</v>
+        <v>305</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>405</v>
+        <v>154</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C26" s="7">
         <v>742</v>
       </c>
       <c r="D26" s="7">
-        <v>842877</v>
+        <v>914669</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>209</v>
+        <v>402</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>407</v>
+        <v>211</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="H26" s="7">
         <v>1031</v>
       </c>
       <c r="I26" s="7">
-        <v>845087</v>
+        <v>698090</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>409</v>
+        <v>132</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>250</v>
+        <v>404</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="M26" s="7">
         <v>1773</v>
       </c>
       <c r="N26" s="7">
-        <v>1687964</v>
+        <v>1612759</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>411</v>
+        <v>311</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>413</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6085,46 +6082,46 @@
         <v>762</v>
       </c>
       <c r="D27" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>1061</v>
       </c>
       <c r="I27" s="7">
-        <v>865672</v>
+        <v>715392</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>1823</v>
       </c>
       <c r="N27" s="7">
-        <v>1725100</v>
+        <v>1644112</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
@@ -6138,97 +6135,97 @@
         <v>235</v>
       </c>
       <c r="D28" s="7">
-        <v>164062</v>
+        <v>154136</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="H28" s="7">
         <v>324</v>
       </c>
       <c r="I28" s="7">
-        <v>176728</v>
+        <v>160400</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="M28" s="7">
         <v>559</v>
       </c>
       <c r="N28" s="7">
-        <v>340790</v>
+        <v>314536</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>244</v>
+        <v>413</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>419</v>
+        <v>232</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>3138</v>
       </c>
       <c r="D29" s="7">
-        <v>3218174</v>
+        <v>3302794</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="H29" s="7">
         <v>5031</v>
       </c>
       <c r="I29" s="7">
-        <v>3624282</v>
+        <v>3495504</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="M29" s="7">
         <v>8169</v>
       </c>
       <c r="N29" s="7">
-        <v>6842457</v>
+        <v>6798298</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>425</v>
+        <v>238</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>252</v>
+        <v>420</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6240,51 +6237,51 @@
         <v>3373</v>
       </c>
       <c r="D30" s="7">
-        <v>3382236</v>
+        <v>3456930</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H30" s="7">
         <v>5355</v>
       </c>
       <c r="I30" s="7">
-        <v>3801010</v>
+        <v>3655904</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M30" s="7">
         <v>8728</v>
       </c>
       <c r="N30" s="7">
-        <v>7183247</v>
+        <v>7112834</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
